--- a/data/trans_dic/P56$familiar-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiar-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.18475165896062</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.642667813282099</v>
+        <v>0.6426678132820992</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1402506646410938</v>
@@ -697,7 +697,7 @@
         <v>0.3017097867466259</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5792867583281558</v>
+        <v>0.5792867583281559</v>
       </c>
     </row>
     <row r="5">
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09051687967046185</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04547267351825676</v>
+        <v>0.0434269289118058</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4901828112411095</v>
+        <v>0.4819617264336177</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1832169143076061</v>
+        <v>0.1945822865175747</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2165179025533221</v>
+        <v>0.2081164990114852</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4701131712205633</v>
+        <v>0.4612760215545841</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03857546051297611</v>
+        <v>0.03713687562790705</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1965552847950776</v>
+        <v>0.2025543574191787</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.18596391591622</v>
+        <v>0.1923896099952185</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.51164249485959</v>
+        <v>0.5070619596451059</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4246497036953837</v>
+        <v>0.426275007038615</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.597150076021254</v>
+        <v>0.5966228441296719</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3777618544218059</v>
+        <v>0.380116162423331</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7962137043857307</v>
+        <v>0.7803365141493864</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4241536495646633</v>
+        <v>0.3585891866469028</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4746239426894943</v>
+        <v>0.4682909649047071</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5444166412392982</v>
+        <v>0.5226978710886779</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6320505574028695</v>
+        <v>0.6287190957751864</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3168773274519907</v>
+        <v>0.3061858641438346</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4486714503488337</v>
+        <v>0.454599894589015</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4418459883535493</v>
+        <v>0.4422376333224501</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.652664684093046</v>
+        <v>0.6529382145455707</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06817004932418931</v>
+        <v>0.06748578242487131</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1335167365302655</v>
+        <v>0.1288020422479869</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1323487699689438</v>
+        <v>0.1399619944715119</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4826915705638399</v>
+        <v>0.4638665733925166</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1334539347644108</v>
+        <v>0.1291084227700712</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.224445325807767</v>
+        <v>0.2237542821700773</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03264258228772013</v>
+        <v>0.03100767694344737</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5274736826583947</v>
+        <v>0.5232661517676102</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1419797669742713</v>
+        <v>0.1340327110714589</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2226083090133969</v>
+        <v>0.2262330451286787</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09016951697799096</v>
+        <v>0.09405972036832658</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5427341637684585</v>
+        <v>0.5445614002640031</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4780193935571592</v>
+        <v>0.477556083751927</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4636399044408761</v>
+        <v>0.4466783016312851</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5352501474569795</v>
+        <v>0.5367042155961465</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7890277801578356</v>
+        <v>0.7662759296513694</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5121983878936274</v>
+        <v>0.5037020624615383</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4642662081317681</v>
+        <v>0.459782075055175</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2809038415138211</v>
+        <v>0.2781435816542966</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6925103587615409</v>
+        <v>0.6963990633885219</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.443940886033666</v>
+        <v>0.4137688333795558</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4218583512188593</v>
+        <v>0.4194035058826306</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2913046676246664</v>
+        <v>0.3098043874938248</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.688021689783936</v>
+        <v>0.6874686830574551</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.04943397758573979</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3900166399760743</v>
+        <v>0.3900166399760742</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2241410039344546</v>
@@ -957,7 +957,7 @@
         <v>0.212177995244002</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.544093699850787</v>
+        <v>0.5440936998507869</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2278316134349101</v>
@@ -969,7 +969,7 @@
         <v>0.1578133542886438</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.4937821563365916</v>
+        <v>0.4937821563365914</v>
       </c>
     </row>
     <row r="11">
@@ -983,37 +983,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06088848374455431</v>
+        <v>0.06460547265666296</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2213758824543801</v>
+        <v>0.2233544966185215</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06231605738368297</v>
+        <v>0.05998403374981168</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09693838219485723</v>
+        <v>0.0993791488143355</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1006599718188707</v>
+        <v>0.07343662919614555</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4187282823685572</v>
+        <v>0.4294585440231717</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.089237231971562</v>
+        <v>0.104530933947759</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1076962816805346</v>
+        <v>0.1226326302258895</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07333778523656398</v>
+        <v>0.06827673525407719</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3882970395203637</v>
+        <v>0.3972241006080711</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6273890093233441</v>
+        <v>0.6164961896506775</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5429366770663694</v>
+        <v>0.5512207819183094</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2688445459756371</v>
+        <v>0.2173735940260329</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5954230401060404</v>
+        <v>0.582887307326004</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4842195245541543</v>
+        <v>0.475465271006085</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.350490932704434</v>
+        <v>0.3644205246008194</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4034002965574608</v>
+        <v>0.4037065209771719</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6517209919802133</v>
+        <v>0.6566515999502995</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4402434713705888</v>
+        <v>0.4197885147581272</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3343104927613951</v>
+        <v>0.353282150406573</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2895117876210839</v>
+        <v>0.3009767615503001</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5828997716186604</v>
+        <v>0.6012526448240174</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06248455185149644</v>
+        <v>0.06204885385846489</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08660965470394504</v>
+        <v>0.08707610088597914</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2281281865420446</v>
+        <v>0.2126774603766926</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.177325388311972</v>
+        <v>0.1831789378942778</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1702564581874608</v>
+        <v>0.1681174065918061</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4297569322204686</v>
+        <v>0.43640939768403</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04621270136052735</v>
+        <v>0.0565642395516142</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1865238108932774</v>
+        <v>0.1759321512644449</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1577915776323802</v>
+        <v>0.1602365529246624</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3999495352787331</v>
+        <v>0.3940191664287002</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5594267967616198</v>
+        <v>0.5000697637822615</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4437542542849675</v>
+        <v>0.4689663849330004</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3587203097995673</v>
+        <v>0.3566737328834265</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4954876920873501</v>
+        <v>0.4789533313806321</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2458018431808296</v>
+        <v>0.2559114857896621</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4269459952109238</v>
+        <v>0.4424309417510976</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4486616626421985</v>
+        <v>0.4529940292849655</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5948435861049461</v>
+        <v>0.5993785145404412</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2559029703830306</v>
+        <v>0.274778664389399</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4006026397484101</v>
+        <v>0.4075013680233657</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.403937767277941</v>
+        <v>0.4119060916068797</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5400074618490375</v>
+        <v>0.5381354785933183</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1107962855167894</v>
+        <v>0.1172967034000163</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1543425693935445</v>
+        <v>0.1748232253608195</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1051177534982046</v>
+        <v>0.09720228234616667</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4139546664433064</v>
+        <v>0.41295069601322</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1103325188058472</v>
+        <v>0.1032092125007251</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2354706799449807</v>
+        <v>0.2376589318981768</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1862756040773259</v>
+        <v>0.1782671614827454</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5138843019793787</v>
+        <v>0.5096775015769961</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1340903685962622</v>
+        <v>0.1277663974719012</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2313366517240805</v>
+        <v>0.229382702582463</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1726767102243293</v>
+        <v>0.1730634157465337</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4958209510127506</v>
+        <v>0.4959833005710579</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3264269189583214</v>
+        <v>0.3344528014569528</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3693727612120711</v>
+        <v>0.3818927642927004</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2779325963692897</v>
+        <v>0.2639542840429796</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5714460888680083</v>
+        <v>0.5754556056541611</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2746645784691273</v>
+        <v>0.2737409364154137</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3669746849415855</v>
+        <v>0.364809835805301</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3298738081073748</v>
+        <v>0.3250293695501716</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6007935047953623</v>
+        <v>0.5978108457559543</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2673578747492812</v>
+        <v>0.2639120786424853</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3421768818472574</v>
+        <v>0.340689075035521</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2872413927789017</v>
+        <v>0.2936768993529574</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5752238568552629</v>
+        <v>0.578298275574024</v>
       </c>
     </row>
     <row r="19">
@@ -1603,37 +1603,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>863</v>
+        <v>824</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12787</v>
+        <v>12573</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8449</v>
+        <v>8973</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8622</v>
+        <v>8287</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>30935</v>
+        <v>30353</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1137</v>
+        <v>1095</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>11145</v>
+        <v>11485</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>10933</v>
+        <v>11311</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>47015</v>
+        <v>46594</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5559</v>
+        <v>5580</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6323</v>
+        <v>6317</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7167</v>
+        <v>7212</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20771</v>
+        <v>20357</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6951</v>
+        <v>5877</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21886</v>
+        <v>21594</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21679</v>
+        <v>20814</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>41591</v>
+        <v>41372</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>9341</v>
+        <v>9026</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>25440</v>
+        <v>25776</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>25977</v>
+        <v>26000</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>59973</v>
+        <v>59998</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4326</v>
+        <v>4173</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2581</v>
+        <v>2729</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12672</v>
+        <v>12178</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3653</v>
+        <v>3534</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14738</v>
+        <v>14693</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1340</v>
+        <v>1273</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>39053</v>
+        <v>38741</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6011</v>
+        <v>5675</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>21829</v>
+        <v>22185</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5461</v>
+        <v>5697</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>54431</v>
+        <v>54614</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7155</v>
+        <v>7148</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15021</v>
+        <v>14471</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10437</v>
+        <v>10465</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>20714</v>
+        <v>20117</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14019</v>
+        <v>13786</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>30486</v>
+        <v>30191</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11535</v>
+        <v>11422</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>51271</v>
+        <v>51559</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>18796</v>
+        <v>17518</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>41368</v>
+        <v>41127</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>17643</v>
+        <v>18763</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>69002</v>
+        <v>68946</v>
       </c>
     </row>
     <row r="12">
@@ -1963,37 +1963,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>851</v>
+        <v>903</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5119</v>
+        <v>5165</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1100</v>
+        <v>1058</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4091</v>
+        <v>4194</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3528</v>
+        <v>2574</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19969</v>
+        <v>20481</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2195</v>
+        <v>2572</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6050</v>
+        <v>6889</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3860</v>
+        <v>3593</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>27496</v>
+        <v>28128</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4363</v>
+        <v>4288</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7588</v>
+        <v>7703</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4726</v>
+        <v>3821</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13768</v>
+        <v>13478</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8545</v>
+        <v>8390</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14790</v>
+        <v>15377</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14138</v>
+        <v>14149</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>31081</v>
+        <v>31316</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10830</v>
+        <v>10327</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>18779</v>
+        <v>19845</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>15236</v>
+        <v>15840</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>41276</v>
+        <v>42576</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1866</v>
+        <v>1876</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7554</v>
+        <v>7043</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9092</v>
+        <v>9392</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9510</v>
+        <v>9390</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>37776</v>
+        <v>38360</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2098</v>
+        <v>2568</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>13582</v>
+        <v>12811</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>11345</v>
+        <v>11521</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>48399</v>
+        <v>47681</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7422</v>
+        <v>6634</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9561</v>
+        <v>10104</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5756</v>
+        <v>5723</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>16408</v>
+        <v>15860</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7900</v>
+        <v>8225</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21890</v>
+        <v>22684</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25060</v>
+        <v>25302</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>52287</v>
+        <v>52685</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>11620</v>
+        <v>12477</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>29171</v>
+        <v>29673</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>29043</v>
+        <v>29616</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>65348</v>
+        <v>65121</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5349</v>
+        <v>5663</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>12117</v>
+        <v>13724</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7579</v>
+        <v>7008</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>44946</v>
+        <v>44837</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10321</v>
+        <v>9655</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>48329</v>
+        <v>48778</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>32000</v>
+        <v>30624</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>141539</v>
+        <v>140380</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>19017</v>
+        <v>18120</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>65642</v>
+        <v>65087</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>42113</v>
+        <v>42208</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>190398</v>
+        <v>190460</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15760</v>
+        <v>16148</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28998</v>
+        <v>29980</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>20038</v>
+        <v>19030</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>62045</v>
+        <v>62481</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>25693</v>
+        <v>25607</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>75320</v>
+        <v>74875</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>56668</v>
+        <v>55836</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>165476</v>
+        <v>164654</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>37918</v>
+        <v>37429</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>97093</v>
+        <v>96671</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>70054</v>
+        <v>71623</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>220889</v>
+        <v>222069</v>
       </c>
     </row>
     <row r="24">
